--- a/media/TABELAS_PROJETO_CONTROLE_DE_PROJETO.xlsx
+++ b/media/TABELAS_PROJETO_CONTROLE_DE_PROJETO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Visual_Studio\Project_Management\media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9F95B3-A3BC-4886-A3DF-B1A43709876D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5567A95F-D5B5-49A4-B594-89C2F620A70E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="837" activeTab="9" xr2:uid="{92A2CAB5-C429-4F3C-B787-3294A076791A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="837" activeTab="3" xr2:uid="{92A2CAB5-C429-4F3C-B787-3294A076791A}"/>
   </bookViews>
   <sheets>
     <sheet name="PROJECTS" sheetId="3" r:id="rId1"/>
@@ -1010,8 +1010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CBC1FF-7632-4978-825F-95FACA9778B1}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3897,7 +3897,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914ACCC7-57C5-4605-96A6-2AB8F18CA087}">
   <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3973,8 +3975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBF8CFC7-9B87-45CF-BF61-6351C0D3018D}">
   <dimension ref="A1:A17"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/media/TABELAS_PROJETO_CONTROLE_DE_PROJETO.xlsx
+++ b/media/TABELAS_PROJETO_CONTROLE_DE_PROJETO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Visual_Studio\Project_Management\media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5567A95F-D5B5-49A4-B594-89C2F620A70E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BCBD65A-6EB4-43B5-BD38-7A7EAB1EEE6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="837" activeTab="3" xr2:uid="{92A2CAB5-C429-4F3C-B787-3294A076791A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="837" activeTab="9" xr2:uid="{92A2CAB5-C429-4F3C-B787-3294A076791A}"/>
   </bookViews>
   <sheets>
     <sheet name="PROJECTS" sheetId="3" r:id="rId1"/>
@@ -23,9 +23,10 @@
     <sheet name="ACTION" sheetId="12" r:id="rId8"/>
     <sheet name="EMPLOYEES" sheetId="6" r:id="rId9"/>
     <sheet name="COTATION_DOC" sheetId="4" r:id="rId10"/>
-    <sheet name="DOCUMENTS_LIST" sheetId="16" r:id="rId11"/>
-    <sheet name="EMISSION" sheetId="5" r:id="rId12"/>
-    <sheet name="CRITERION_DOC_NAME" sheetId="9" r:id="rId13"/>
+    <sheet name="COTATION_DOC (2)" sheetId="17" r:id="rId11"/>
+    <sheet name="DOCUMENTS_LIST" sheetId="16" r:id="rId12"/>
+    <sheet name="EMISSION" sheetId="5" r:id="rId13"/>
+    <sheet name="CRITERION_DOC_NAME" sheetId="9" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">ACTION!$A$1:$A$9</definedName>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="167">
   <si>
     <t>DISCIPLINA</t>
   </si>
@@ -192,9 +193,6 @@
     <t>DE</t>
   </si>
   <si>
-    <t>COD_DOC_TIPO</t>
-  </si>
-  <si>
     <t>LE</t>
   </si>
   <si>
@@ -547,6 +545,15 @@
   </si>
   <si>
     <t>photo</t>
+  </si>
+  <si>
+    <t>TIPO_FORMAT</t>
+  </si>
+  <si>
+    <t>.DOCX</t>
+  </si>
+  <si>
+    <t>Projeto Revitalização - Porto Novo</t>
   </si>
 </sst>
 </file>
@@ -952,19 +959,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -975,30 +982,30 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D2">
         <v>10001</v>
       </c>
       <c r="E2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D3">
         <v>50300</v>
       </c>
       <c r="E3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -1008,19 +1015,19 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CBC1FF-7632-4978-825F-95FACA9778B1}">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
@@ -1035,13 +1042,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>82</v>
+        <v>164</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>11</v>
@@ -1050,27 +1057,27 @@
         <v>12</v>
       </c>
       <c r="H1" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>166</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>165</v>
       </c>
       <c r="F2">
         <v>30</v>
@@ -1087,19 +1094,19 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>166</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>165</v>
       </c>
       <c r="F3">
         <v>30</v>
@@ -1116,19 +1123,19 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>166</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>165</v>
       </c>
       <c r="F4">
         <v>10</v>
@@ -1145,19 +1152,19 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>166</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="C5" t="s">
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>5</v>
+        <v>165</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -1174,19 +1181,19 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>166</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="C6" t="s">
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>87</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1203,785 +1210,31 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>166</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7">
         <v>16</v>
       </c>
       <c r="I7" s="1">
         <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>4</v>
-      </c>
-      <c r="H8">
-        <v>8</v>
-      </c>
-      <c r="I8" s="1">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>6</v>
-      </c>
-      <c r="H9">
-        <v>10</v>
-      </c>
-      <c r="I9" s="1">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10">
-        <v>15</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>16</v>
-      </c>
-      <c r="I10" s="1">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11">
-        <v>15</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>20</v>
-      </c>
-      <c r="I11" s="1">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12">
-        <v>10</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>20</v>
-      </c>
-      <c r="I12" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13">
-        <v>8</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>15</v>
-      </c>
-      <c r="I13" s="1">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14">
-        <v>8</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>15</v>
-      </c>
-      <c r="I14" s="1">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15">
-        <v>8</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>15</v>
-      </c>
-      <c r="I15" s="1">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16">
-        <v>8</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>15</v>
-      </c>
-      <c r="I16" s="1">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17">
-        <v>8</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>15</v>
-      </c>
-      <c r="I17" s="1">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18">
-        <v>30</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>30</v>
-      </c>
-      <c r="I18" s="1">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19">
-        <v>30</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>30</v>
-      </c>
-      <c r="I19" s="1">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20">
-        <v>10</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>30</v>
-      </c>
-      <c r="I20" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21">
-        <v>5</v>
-      </c>
-      <c r="G21">
-        <v>5</v>
-      </c>
-      <c r="H21">
-        <v>25</v>
-      </c>
-      <c r="I21" s="1">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" t="s">
-        <v>52</v>
-      </c>
-      <c r="E22" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <v>8</v>
-      </c>
-      <c r="I22" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" t="s">
-        <v>45</v>
-      </c>
-      <c r="E23" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <v>16</v>
-      </c>
-      <c r="I23" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>2</v>
-      </c>
-      <c r="B24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>4</v>
-      </c>
-      <c r="H24">
-        <v>8</v>
-      </c>
-      <c r="I24" s="1">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
-        <v>52</v>
-      </c>
-      <c r="E25" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>6</v>
-      </c>
-      <c r="H25">
-        <v>10</v>
-      </c>
-      <c r="I25" s="1">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>2</v>
-      </c>
-      <c r="B26" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" t="s">
-        <v>52</v>
-      </c>
-      <c r="E26" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26">
-        <v>15</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-      <c r="H26">
-        <v>16</v>
-      </c>
-      <c r="I26" s="1">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>2</v>
-      </c>
-      <c r="B27" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" t="s">
-        <v>52</v>
-      </c>
-      <c r="E27" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27">
-        <v>15</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-      <c r="H27">
-        <v>20</v>
-      </c>
-      <c r="I27" s="1">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>2</v>
-      </c>
-      <c r="B28" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" t="s">
-        <v>45</v>
-      </c>
-      <c r="E28" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28">
-        <v>10</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="H28">
-        <v>20</v>
-      </c>
-      <c r="I28" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>2</v>
-      </c>
-      <c r="B29" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" t="s">
-        <v>23</v>
-      </c>
-      <c r="D29" t="s">
-        <v>47</v>
-      </c>
-      <c r="E29" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29">
-        <v>8</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <v>15</v>
-      </c>
-      <c r="I29" s="1">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>2</v>
-      </c>
-      <c r="B30" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E30" t="s">
-        <v>5</v>
-      </c>
-      <c r="F30">
-        <v>8</v>
-      </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
-      <c r="H30">
-        <v>15</v>
-      </c>
-      <c r="I30" s="1">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>2</v>
-      </c>
-      <c r="B31" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>49</v>
-      </c>
-      <c r="E31" t="s">
-        <v>5</v>
-      </c>
-      <c r="F31">
-        <v>8</v>
-      </c>
-      <c r="G31">
-        <v>1</v>
-      </c>
-      <c r="H31">
-        <v>15</v>
-      </c>
-      <c r="I31" s="1">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>2</v>
-      </c>
-      <c r="B32" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" t="s">
-        <v>28</v>
-      </c>
-      <c r="D32" t="s">
-        <v>50</v>
-      </c>
-      <c r="E32" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32">
-        <v>8</v>
-      </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
-      <c r="H32">
-        <v>15</v>
-      </c>
-      <c r="I32" s="1">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>2</v>
-      </c>
-      <c r="B33" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33" t="s">
-        <v>29</v>
-      </c>
-      <c r="D33" t="s">
-        <v>51</v>
-      </c>
-      <c r="E33" t="s">
-        <v>5</v>
-      </c>
-      <c r="F33">
-        <v>8</v>
-      </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
-      <c r="H33">
-        <v>15</v>
-      </c>
-      <c r="I33" s="1">
-        <v>800</v>
       </c>
     </row>
   </sheetData>
@@ -1991,6 +1244,990 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{144E3F3D-4BA7-4AD1-982B-F4576FD842A7}">
+  <dimension ref="A1:I33"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F2">
+        <v>30</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>30</v>
+      </c>
+      <c r="I2" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F3">
+        <v>30</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>30</v>
+      </c>
+      <c r="I3" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>165</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>30</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>165</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>25</v>
+      </c>
+      <c r="I5" s="1">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>8</v>
+      </c>
+      <c r="I6" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>16</v>
+      </c>
+      <c r="I7" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <v>8</v>
+      </c>
+      <c r="I8" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+      <c r="H9">
+        <v>10</v>
+      </c>
+      <c r="I9" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10">
+        <v>15</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>16</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11">
+        <v>15</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>20</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>20</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <v>8</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>15</v>
+      </c>
+      <c r="I13" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <v>8</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>15</v>
+      </c>
+      <c r="I14" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <v>8</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>15</v>
+      </c>
+      <c r="I15" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16">
+        <v>8</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>15</v>
+      </c>
+      <c r="I16" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17">
+        <v>8</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>15</v>
+      </c>
+      <c r="I17" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18">
+        <v>30</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>30</v>
+      </c>
+      <c r="I18" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19">
+        <v>30</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>30</v>
+      </c>
+      <c r="I19" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20">
+        <v>10</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>30</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+      <c r="G21">
+        <v>5</v>
+      </c>
+      <c r="H21">
+        <v>25</v>
+      </c>
+      <c r="I21" s="1">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>8</v>
+      </c>
+      <c r="I22" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>16</v>
+      </c>
+      <c r="I23" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>4</v>
+      </c>
+      <c r="H24">
+        <v>8</v>
+      </c>
+      <c r="I24" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>6</v>
+      </c>
+      <c r="H25">
+        <v>10</v>
+      </c>
+      <c r="I25" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26">
+        <v>15</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>16</v>
+      </c>
+      <c r="I26" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27">
+        <v>15</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>20</v>
+      </c>
+      <c r="I27" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28">
+        <v>10</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>20</v>
+      </c>
+      <c r="I28" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29">
+        <v>8</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>15</v>
+      </c>
+      <c r="I29" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30">
+        <v>8</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>15</v>
+      </c>
+      <c r="I30" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31">
+        <v>8</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>15</v>
+      </c>
+      <c r="I31" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32">
+        <v>8</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>15</v>
+      </c>
+      <c r="I32" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33">
+        <v>8</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>15</v>
+      </c>
+      <c r="I33" s="1">
+        <v>800</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF1D3E43-F931-4E18-866B-6DF613E1A198}">
   <dimension ref="A1:H19"/>
   <sheetViews>
@@ -2011,25 +2248,25 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -2037,7 +2274,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -2046,7 +2283,7 @@
         <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
@@ -2064,7 +2301,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
@@ -2073,7 +2310,7 @@
         <v>42</v>
       </c>
       <c r="E3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F3" t="s">
         <v>5</v>
@@ -2091,7 +2328,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
@@ -2100,7 +2337,7 @@
         <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -2118,7 +2355,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C5" t="s">
         <v>27</v>
@@ -2127,7 +2364,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -2145,7 +2382,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C6" t="s">
         <v>27</v>
@@ -2154,7 +2391,7 @@
         <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F6" t="s">
         <v>5</v>
@@ -2172,7 +2409,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C7" t="s">
         <v>27</v>
@@ -2181,7 +2418,7 @@
         <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F7" t="s">
         <v>5</v>
@@ -2199,16 +2436,16 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C8" t="s">
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -2226,16 +2463,16 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -2253,7 +2490,7 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
@@ -2280,7 +2517,7 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
@@ -2307,7 +2544,7 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
@@ -2316,7 +2553,7 @@
         <v>45</v>
       </c>
       <c r="E12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
@@ -2334,7 +2571,7 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
@@ -2343,7 +2580,7 @@
         <v>45</v>
       </c>
       <c r="E13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F13" t="s">
         <v>10</v>
@@ -2361,7 +2598,7 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
@@ -2370,7 +2607,7 @@
         <v>45</v>
       </c>
       <c r="E14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F14" t="s">
         <v>10</v>
@@ -2388,16 +2625,16 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F15" t="s">
         <v>5</v>
@@ -2415,16 +2652,16 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F16" t="s">
         <v>5</v>
@@ -2442,16 +2679,16 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C17" t="s">
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F17" t="s">
         <v>5</v>
@@ -2469,16 +2706,16 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
       </c>
       <c r="D18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F18" t="s">
         <v>5</v>
@@ -2496,16 +2733,16 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C19" t="s">
         <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F19" t="s">
         <v>5</v>
@@ -2524,7 +2761,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BA889D1-7893-4DFB-BBDE-40709B2C155B}">
   <dimension ref="A1:L19"/>
   <sheetViews>
@@ -2550,40 +2787,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>30</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="K1" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -2591,16 +2828,16 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D2" t="s">
         <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G2" t="s">
         <v>34</v>
@@ -2615,10 +2852,10 @@
         <v>33</v>
       </c>
       <c r="K2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -2626,16 +2863,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D3" t="s">
         <v>42</v>
       </c>
       <c r="E3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G3" t="s">
         <v>34</v>
@@ -2650,10 +2887,10 @@
         <v>33</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -2661,16 +2898,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D4" t="s">
         <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G4" t="s">
         <v>34</v>
@@ -2685,10 +2922,10 @@
         <v>33</v>
       </c>
       <c r="K4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -2696,19 +2933,19 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D5" t="s">
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H5" t="s">
         <v>31</v>
@@ -2720,10 +2957,10 @@
         <v>33</v>
       </c>
       <c r="K5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -2731,16 +2968,16 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D6" t="s">
         <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G6" t="s">
         <v>34</v>
@@ -2755,10 +2992,10 @@
         <v>33</v>
       </c>
       <c r="K6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -2766,19 +3003,19 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D7" t="s">
         <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H7" t="s">
         <v>31</v>
@@ -2790,10 +3027,10 @@
         <v>33</v>
       </c>
       <c r="K7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -2801,16 +3038,16 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G8" t="s">
         <v>34</v>
@@ -2825,10 +3062,10 @@
         <v>33</v>
       </c>
       <c r="K8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -2836,19 +3073,19 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H9" t="s">
         <v>31</v>
@@ -2860,10 +3097,10 @@
         <v>33</v>
       </c>
       <c r="K9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -2871,10 +3108,10 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D10" t="s">
         <v>45</v>
@@ -2895,10 +3132,10 @@
         <v>33</v>
       </c>
       <c r="K10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -2906,10 +3143,10 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D11" t="s">
         <v>45</v>
@@ -2918,7 +3155,7 @@
         <v>19</v>
       </c>
       <c r="G11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H11" t="s">
         <v>31</v>
@@ -2930,10 +3167,10 @@
         <v>33</v>
       </c>
       <c r="K11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -2941,16 +3178,16 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D12" t="s">
         <v>45</v>
       </c>
       <c r="E12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G12" t="s">
         <v>34</v>
@@ -2965,10 +3202,10 @@
         <v>33</v>
       </c>
       <c r="K12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -2976,16 +3213,16 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D13" t="s">
         <v>45</v>
       </c>
       <c r="E13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G13" t="s">
         <v>34</v>
@@ -3000,10 +3237,10 @@
         <v>33</v>
       </c>
       <c r="K13" t="s">
+        <v>55</v>
+      </c>
+      <c r="L13" t="s">
         <v>56</v>
-      </c>
-      <c r="L13" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -3011,19 +3248,19 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D14" t="s">
         <v>45</v>
       </c>
       <c r="E14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H14" t="s">
         <v>31</v>
@@ -3035,10 +3272,10 @@
         <v>33</v>
       </c>
       <c r="K14" t="s">
+        <v>55</v>
+      </c>
+      <c r="L14" t="s">
         <v>56</v>
-      </c>
-      <c r="L14" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -3046,16 +3283,16 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G15" t="s">
         <v>34</v>
@@ -3070,10 +3307,10 @@
         <v>33</v>
       </c>
       <c r="K15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -3081,16 +3318,16 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G16" t="s">
         <v>34</v>
@@ -3105,10 +3342,10 @@
         <v>33</v>
       </c>
       <c r="K16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -3116,19 +3353,19 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H17" t="s">
         <v>31</v>
@@ -3140,10 +3377,10 @@
         <v>33</v>
       </c>
       <c r="K17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -3151,19 +3388,19 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H18" t="s">
         <v>31</v>
@@ -3175,10 +3412,10 @@
         <v>33</v>
       </c>
       <c r="K18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -3186,19 +3423,19 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H19" t="s">
         <v>31</v>
@@ -3210,10 +3447,10 @@
         <v>33</v>
       </c>
       <c r="K19" t="s">
+        <v>55</v>
+      </c>
+      <c r="L19" t="s">
         <v>56</v>
-      </c>
-      <c r="L19" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -3222,7 +3459,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3063D7AB-AE70-4384-8FAC-EB43F8B9C3AF}">
   <dimension ref="A1:H19"/>
   <sheetViews>
@@ -3244,28 +3481,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -3276,7 +3513,7 @@
         <v>10001</v>
       </c>
       <c r="C2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D2" t="s">
         <v>38</v>
@@ -3304,7 +3541,7 @@
         <v>10001</v>
       </c>
       <c r="C3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D3" t="s">
         <v>38</v>
@@ -3332,7 +3569,7 @@
         <v>10001</v>
       </c>
       <c r="C4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D4" t="s">
         <v>38</v>
@@ -3360,7 +3597,7 @@
         <v>10001</v>
       </c>
       <c r="C5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D5" t="s">
         <v>38</v>
@@ -3388,7 +3625,7 @@
         <v>10001</v>
       </c>
       <c r="C6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D6" t="s">
         <v>38</v>
@@ -3416,7 +3653,7 @@
         <v>10001</v>
       </c>
       <c r="C7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D7" t="s">
         <v>38</v>
@@ -3444,7 +3681,7 @@
         <v>10001</v>
       </c>
       <c r="C8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D8" t="s">
         <v>38</v>
@@ -3454,7 +3691,7 @@
         <v>IE</v>
       </c>
       <c r="F8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
@@ -3472,7 +3709,7 @@
         <v>10001</v>
       </c>
       <c r="C9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D9" t="s">
         <v>38</v>
@@ -3482,7 +3719,7 @@
         <v>IE</v>
       </c>
       <c r="F9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
@@ -3500,7 +3737,7 @@
         <v>10001</v>
       </c>
       <c r="C10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D10" t="s">
         <v>38</v>
@@ -3528,7 +3765,7 @@
         <v>10001</v>
       </c>
       <c r="C11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D11" t="s">
         <v>38</v>
@@ -3556,7 +3793,7 @@
         <v>10001</v>
       </c>
       <c r="C12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D12" t="s">
         <v>38</v>
@@ -3584,7 +3821,7 @@
         <v>10001</v>
       </c>
       <c r="C13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D13" t="s">
         <v>38</v>
@@ -3612,7 +3849,7 @@
         <v>10001</v>
       </c>
       <c r="C14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D14" t="s">
         <v>38</v>
@@ -3640,7 +3877,7 @@
         <v>10001</v>
       </c>
       <c r="C15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D15" t="s">
         <v>38</v>
@@ -3650,7 +3887,7 @@
         <v>IE</v>
       </c>
       <c r="F15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
@@ -3668,7 +3905,7 @@
         <v>10001</v>
       </c>
       <c r="C16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D16" t="s">
         <v>38</v>
@@ -3678,7 +3915,7 @@
         <v>IE</v>
       </c>
       <c r="F16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" si="0"/>
@@ -3696,7 +3933,7 @@
         <v>10001</v>
       </c>
       <c r="C17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D17" t="s">
         <v>38</v>
@@ -3706,7 +3943,7 @@
         <v>IE</v>
       </c>
       <c r="F17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
@@ -3724,7 +3961,7 @@
         <v>10001</v>
       </c>
       <c r="C18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D18" t="s">
         <v>38</v>
@@ -3734,7 +3971,7 @@
         <v>IE</v>
       </c>
       <c r="F18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G18" t="str">
         <f t="shared" si="0"/>
@@ -3752,7 +3989,7 @@
         <v>10001</v>
       </c>
       <c r="C19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D19" t="s">
         <v>38</v>
@@ -3762,7 +3999,7 @@
         <v>IE</v>
       </c>
       <c r="F19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G19" t="str">
         <f t="shared" si="0"/>
@@ -3794,18 +4031,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3813,23 +4050,23 @@
         <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3837,23 +4074,23 @@
         <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -3861,31 +4098,31 @@
         <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -3908,7 +4145,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -3923,7 +4160,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
@@ -3938,17 +4175,17 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
@@ -3958,12 +4195,12 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -3975,7 +4212,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBF8CFC7-9B87-45CF-BF61-6351C0D3018D}">
   <dimension ref="A1:A17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -3986,7 +4223,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -4088,7 +4325,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -4129,12 +4366,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -4144,7 +4381,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
@@ -4154,7 +4391,7 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
@@ -4164,7 +4401,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -4190,7 +4427,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -4200,47 +4437,47 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -4261,32 +4498,32 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -4317,60 +4554,60 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>103</v>
-      </c>
       <c r="D1" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
         <v>35</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B3" t="s">
         <v>37</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B4" t="s">
         <v>36</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/media/TABELAS_PROJETO_CONTROLE_DE_PROJETO.xlsx
+++ b/media/TABELAS_PROJETO_CONTROLE_DE_PROJETO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Visual_Studio\Project_Management\media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BCBD65A-6EB4-43B5-BD38-7A7EAB1EEE6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5609B623-F03D-4013-9EF3-73F92B304A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="837" activeTab="9" xr2:uid="{92A2CAB5-C429-4F3C-B787-3294A076791A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="837" activeTab="9" xr2:uid="{92A2CAB5-C429-4F3C-B787-3294A076791A}"/>
   </bookViews>
   <sheets>
     <sheet name="PROJECTS" sheetId="3" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="169">
   <si>
     <t>DISCIPLINA</t>
   </si>
@@ -554,6 +554,12 @@
   </si>
   <si>
     <t>Projeto Revitalização - Porto Novo</t>
+  </si>
+  <si>
+    <t>Topologia</t>
+  </si>
+  <si>
+    <t>MEMORIAL DESCRITIVO</t>
   </si>
 </sst>
 </file>
@@ -1015,10 +1021,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CBC1FF-7632-4978-825F-95FACA9778B1}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1027,14 +1033,13 @@
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1047,23 +1052,20 @@
       <c r="D1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>164</v>
+      <c r="E1" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="I1" s="7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>166</v>
       </c>
@@ -1071,28 +1073,25 @@
         <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>168</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
-        <v>165</v>
+      <c r="E2">
+        <v>30</v>
       </c>
       <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
         <v>30</v>
       </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>30</v>
-      </c>
-      <c r="I2" s="1">
+      <c r="H2" s="1">
         <v>3000</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>166</v>
       </c>
@@ -1100,28 +1099,25 @@
         <v>92</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" t="s">
-        <v>165</v>
+      <c r="E3">
+        <v>10</v>
       </c>
       <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
         <v>30</v>
       </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>30</v>
-      </c>
-      <c r="I3" s="1">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H3" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>166</v>
       </c>
@@ -1129,28 +1125,25 @@
         <v>92</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" t="s">
-        <v>165</v>
+      <c r="E4">
+        <v>5</v>
       </c>
       <c r="F4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>30</v>
-      </c>
-      <c r="I4" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>166</v>
       </c>
@@ -1158,28 +1151,25 @@
         <v>92</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>167</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>165</v>
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>5</v>
-      </c>
-      <c r="H5">
-        <v>25</v>
-      </c>
-      <c r="I5" s="1">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="H5" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>166</v>
       </c>
@@ -1187,53 +1177,21 @@
         <v>92</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s">
-        <v>87</v>
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>8</v>
-      </c>
-      <c r="I6" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>166</v>
-      </c>
-      <c r="B7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
-      <c r="H7">
         <v>16</v>
       </c>
-      <c r="I7" s="1">
+      <c r="H6" s="1">
         <v>100</v>
       </c>
     </row>
